--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122052a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122052a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.5081411745834636</v>
+      </c>
+      <c r="D5">
+        <v>0.5944461991940349</v>
+      </c>
+      <c r="E5">
+        <v>3.034353218165433</v>
+      </c>
+      <c r="F5">
+        <v>1.56778465531193</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.5081411745834636</v>
+        <v>1.464175861113496</v>
       </c>
       <c r="D6">
-        <v>0.5944461991940349</v>
+        <v>1.707587155408965</v>
       </c>
       <c r="E6">
-        <v>3.034353218165433</v>
+        <v>20.44722024213587</v>
       </c>
       <c r="F6">
-        <v>1.56778465531193</v>
+        <v>7.034181380898231</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.464175861113496</v>
+        <v>1.187329040715406</v>
       </c>
       <c r="D7">
-        <v>1.707587155408965</v>
+        <v>1.535409495676731</v>
       </c>
       <c r="E7">
-        <v>20.44722024213587</v>
+        <v>7.946170607560144</v>
       </c>
       <c r="F7">
-        <v>7.034181380898231</v>
+        <v>3.778137395828614</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3.19102068484448</v>
+      </c>
+      <c r="D8">
+        <v>3.974399736381812</v>
+      </c>
+      <c r="E8">
+        <v>22.68556483970944</v>
+      </c>
+      <c r="F8">
+        <v>8.695199042057014</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.187329040715406</v>
+        <v>5.598273580026611</v>
       </c>
       <c r="D9">
-        <v>1.535409495676731</v>
+        <v>6.027017183704438</v>
       </c>
       <c r="E9">
-        <v>7.946170607560144</v>
+        <v>34.12522040517155</v>
       </c>
       <c r="F9">
-        <v>3.778137395828614</v>
+        <v>13.69114190309573</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.19102068484448</v>
+        <v>3.496137246027744</v>
       </c>
       <c r="D10">
-        <v>3.974399736381812</v>
+        <v>4.17896925223713</v>
       </c>
       <c r="E10">
-        <v>22.68556483970944</v>
+        <v>17.58256193983435</v>
       </c>
       <c r="F10">
-        <v>8.695199042057014</v>
+        <v>9.690458121751865</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.598273580026611</v>
+        <v>4.529453592261948</v>
       </c>
       <c r="D11">
-        <v>6.027017183704438</v>
+        <v>6.065094768752821</v>
       </c>
       <c r="E11">
-        <v>34.12522040517155</v>
+        <v>23.19423532975317</v>
       </c>
       <c r="F11">
-        <v>13.69114190309573</v>
+        <v>11.22779557093416</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.496137246027744</v>
+        <v>1.684184510223045</v>
       </c>
       <c r="D12">
-        <v>4.17896925223713</v>
+        <v>2.224045929125258</v>
       </c>
       <c r="E12">
-        <v>17.58256193983435</v>
+        <v>11.34443660923715</v>
       </c>
       <c r="F12">
-        <v>9.690458121751865</v>
+        <v>5.848256379754061</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.529453592261948</v>
+        <v>5.139461968891888</v>
       </c>
       <c r="D13">
-        <v>6.065094768752821</v>
+        <v>5.866657990603722</v>
       </c>
       <c r="E13">
-        <v>23.19423532975317</v>
+        <v>22.28994023667763</v>
       </c>
       <c r="F13">
-        <v>11.22779557093416</v>
+        <v>14.58095290974741</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.684184510223045</v>
+        <v>3.136866739718527</v>
       </c>
       <c r="D14">
-        <v>2.224045929125258</v>
+        <v>4.572647198637098</v>
       </c>
       <c r="E14">
-        <v>11.34443660923715</v>
+        <v>29.82907247290352</v>
       </c>
       <c r="F14">
-        <v>5.848256379754061</v>
+        <v>12.67550233600547</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.139461968891888</v>
+        <v>0.8509658440415823</v>
       </c>
       <c r="D15">
-        <v>5.866657990603722</v>
+        <v>1.042885739498613</v>
       </c>
       <c r="E15">
-        <v>22.28994023667763</v>
+        <v>4.554591232580522</v>
       </c>
       <c r="F15">
-        <v>14.58095290974741</v>
+        <v>2.479800347219806</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.136866739718527</v>
+        <v>3.799582848118499</v>
       </c>
       <c r="D16">
-        <v>4.572647198637098</v>
+        <v>4.72296441233654</v>
       </c>
       <c r="E16">
-        <v>29.82907247290352</v>
+        <v>16.36598994874511</v>
       </c>
       <c r="F16">
-        <v>12.67550233600547</v>
+        <v>10.00735200842478</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.8509658440415823</v>
+        <v>5.045686474165758</v>
       </c>
       <c r="D17">
-        <v>1.042885739498613</v>
+        <v>4.963254275412456</v>
       </c>
       <c r="E17">
-        <v>4.554591232580522</v>
+        <v>28.80264763954765</v>
       </c>
       <c r="F17">
-        <v>2.479800347219806</v>
+        <v>15.93978227066001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.799582848118499</v>
+        <v>1.396758608707512</v>
       </c>
       <c r="D18">
-        <v>4.72296441233654</v>
+        <v>1.606140958152417</v>
       </c>
       <c r="E18">
-        <v>16.36598994874511</v>
+        <v>8.45336443260698</v>
       </c>
       <c r="F18">
-        <v>10.00735200842478</v>
+        <v>4.456604338349025</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.045686474165758</v>
+        <v>3.04459318114526</v>
       </c>
       <c r="D19">
-        <v>4.963254275412456</v>
+        <v>4.289162553616112</v>
       </c>
       <c r="E19">
-        <v>28.80264763954765</v>
+        <v>14.55036587091979</v>
       </c>
       <c r="F19">
-        <v>15.93978227066001</v>
+        <v>9.229924591261421</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.396758608707512</v>
+        <v>3.925760407619177</v>
       </c>
       <c r="D20">
-        <v>1.606140958152417</v>
+        <v>4.015629211395444</v>
       </c>
       <c r="E20">
-        <v>8.45336443260698</v>
+        <v>26.16456546977235</v>
       </c>
       <c r="F20">
-        <v>4.456604338349025</v>
+        <v>9.142181771167946</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.04459318114526</v>
+        <v>2.314626019766996</v>
       </c>
       <c r="D21">
-        <v>4.289162553616112</v>
+        <v>2.920106490610077</v>
       </c>
       <c r="E21">
-        <v>14.55036587091979</v>
+        <v>9.808487793717406</v>
       </c>
       <c r="F21">
-        <v>9.229924591261421</v>
+        <v>5.231930364751931</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.925760407619177</v>
+        <v>3.60537711573227</v>
       </c>
       <c r="D22">
-        <v>4.015629211395444</v>
+        <v>4.513020003148951</v>
       </c>
       <c r="E22">
-        <v>26.16456546977235</v>
+        <v>28.35939895320983</v>
       </c>
       <c r="F22">
-        <v>9.142181771167946</v>
+        <v>9.97231968181266</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.314626019766996</v>
+        <v>3.093021256762006</v>
       </c>
       <c r="D23">
-        <v>2.920106490610077</v>
+        <v>4.642830833841936</v>
       </c>
       <c r="E23">
-        <v>9.808487793717406</v>
+        <v>15.93172269713837</v>
       </c>
       <c r="F23">
-        <v>5.231930364751931</v>
+        <v>6.887820445730516</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.60537711573227</v>
+        <v>1.385487504574674</v>
       </c>
       <c r="D24">
-        <v>4.513020003148951</v>
+        <v>1.775868321243392</v>
       </c>
       <c r="E24">
-        <v>28.35939895320983</v>
+        <v>9.000082937029088</v>
       </c>
       <c r="F24">
-        <v>9.97231968181266</v>
+        <v>5.202190506130764</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.093021256762006</v>
+        <v>0.8893048751000149</v>
       </c>
       <c r="D25">
-        <v>4.642830833841936</v>
+        <v>1.026414574601607</v>
       </c>
       <c r="E25">
-        <v>15.93172269713837</v>
+        <v>5.632636122452578</v>
       </c>
       <c r="F25">
-        <v>6.887820445730516</v>
+        <v>2.915593288063174</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.385487504574674</v>
+        <v>1.591762721317958</v>
       </c>
       <c r="D26">
-        <v>1.775868321243392</v>
+        <v>2.004443301059502</v>
       </c>
       <c r="E26">
-        <v>9.000082937029088</v>
+        <v>10.26872276598148</v>
       </c>
       <c r="F26">
-        <v>5.202190506130764</v>
+        <v>5.787685191701641</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.8893048751000149</v>
+        <v>2.829258208465562</v>
       </c>
       <c r="D27">
-        <v>1.026414574601607</v>
+        <v>3.743009627156367</v>
       </c>
       <c r="E27">
-        <v>5.632636122452578</v>
+        <v>24.11389072314394</v>
       </c>
       <c r="F27">
-        <v>2.915593288063174</v>
+        <v>12.43694754137987</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1.591762721317958</v>
+        <v>1.902764542268338</v>
       </c>
       <c r="D28">
-        <v>2.004443301059502</v>
+        <v>2.035300323702054</v>
       </c>
       <c r="E28">
-        <v>10.26872276598148</v>
+        <v>13.47434240709383</v>
       </c>
       <c r="F28">
-        <v>5.787685191701641</v>
+        <v>5.307330119187089</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>2.829258208465562</v>
+        <v>1.277093426087667</v>
       </c>
       <c r="D29">
-        <v>3.743009627156367</v>
+        <v>1.471758253106961</v>
       </c>
       <c r="E29">
-        <v>24.11389072314394</v>
+        <v>7.677574008898241</v>
       </c>
       <c r="F29">
-        <v>12.43694754137987</v>
+        <v>4.230328398338916</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1.902764542268338</v>
+        <v>1.206907338065102</v>
       </c>
       <c r="D30">
-        <v>2.035300323702054</v>
+        <v>1.306512078241446</v>
       </c>
       <c r="E30">
-        <v>13.47434240709383</v>
+        <v>8.428003892113217</v>
       </c>
       <c r="F30">
-        <v>5.307330119187089</v>
+        <v>3.879574224520163</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.277093426087667</v>
+        <v>1.767202426689046</v>
       </c>
       <c r="D31">
-        <v>1.471758253106961</v>
+        <v>1.942042451801864</v>
       </c>
       <c r="E31">
-        <v>7.677574008898241</v>
+        <v>12.93306558057827</v>
       </c>
       <c r="F31">
-        <v>4.230328398338916</v>
+        <v>5.643285693883223</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.206907338065102</v>
+        <v>3.816350488878252</v>
       </c>
       <c r="D32">
-        <v>1.306512078241446</v>
+        <v>4.13751038631375</v>
       </c>
       <c r="E32">
-        <v>8.428003892113217</v>
+        <v>33.91380947401797</v>
       </c>
       <c r="F32">
-        <v>3.879574224520163</v>
+        <v>12.15907016224001</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1.767202426689046</v>
+        <v>1.698261959261029</v>
       </c>
       <c r="D33">
-        <v>1.942042451801864</v>
+        <v>1.786502727961956</v>
       </c>
       <c r="E33">
-        <v>12.93306558057827</v>
+        <v>11.31634728782649</v>
       </c>
       <c r="F33">
-        <v>5.643285693883223</v>
+        <v>5.523441058816839</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3.816350488878252</v>
+        <v>1.196351760180418</v>
       </c>
       <c r="D34">
-        <v>4.13751038631375</v>
+        <v>1.396010258436652</v>
       </c>
       <c r="E34">
-        <v>33.91380947401797</v>
+        <v>7.303751643155527</v>
       </c>
       <c r="F34">
-        <v>12.15907016224001</v>
+        <v>3.959608753842551</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1.698261959261029</v>
+        <v>3.475106756744456</v>
       </c>
       <c r="D35">
-        <v>1.786502727961956</v>
+        <v>4.645517600584301</v>
       </c>
       <c r="E35">
-        <v>11.31634728782649</v>
+        <v>23.95542020741978</v>
       </c>
       <c r="F35">
-        <v>5.523441058816839</v>
+        <v>12.09851981977699</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.196351760180418</v>
+        <v>2.879741686918769</v>
       </c>
       <c r="D36">
-        <v>1.396010258436652</v>
+        <v>3.226993070240942</v>
       </c>
       <c r="E36">
-        <v>7.303751643155527</v>
+        <v>24.30569036154688</v>
       </c>
       <c r="F36">
-        <v>3.959608753842551</v>
+        <v>8.290165462341911</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3.475106756744456</v>
+        <v>1.76000130442003</v>
       </c>
       <c r="D37">
-        <v>4.645517600584301</v>
+        <v>2.06639830613521</v>
       </c>
       <c r="E37">
-        <v>23.95542020741978</v>
+        <v>10.21097661301788</v>
       </c>
       <c r="F37">
-        <v>12.09851981977699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>2.879741686918769</v>
-      </c>
-      <c r="D38">
-        <v>3.226993070240942</v>
-      </c>
-      <c r="E38">
-        <v>24.30569036154688</v>
-      </c>
-      <c r="F38">
-        <v>8.290165462341911</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1.76000130442003</v>
-      </c>
-      <c r="D39">
-        <v>2.06639830613521</v>
-      </c>
-      <c r="E39">
-        <v>10.21097661301788</v>
-      </c>
-      <c r="F39">
         <v>6.875005095390741</v>
       </c>
     </row>
